--- a/STATOS_5_12921010.xlsx
+++ b/STATOS_5_12921010.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\kuliah ITB\Statistika Untuk Ose\praktikum\STATOS_5_12921010\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E7F72E64-7F3A-4980-AC6D-D27E8B13EF11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C279361-2F97-48FD-8623-59D10994D6D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10860" yWindow="0" windowWidth="11460" windowHeight="8640" xr2:uid="{0CED9F10-63BB-4300-95F3-FA42EF7FEFF1}"/>
+    <workbookView xWindow="384" yWindow="384" windowWidth="11460" windowHeight="8640" xr2:uid="{0CED9F10-63BB-4300-95F3-FA42EF7FEFF1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="33">
   <si>
     <t>Tahun 1992</t>
   </si>
@@ -126,6 +126,15 @@
   </si>
   <si>
     <t>fhit</t>
+  </si>
+  <si>
+    <t>xbar1</t>
+  </si>
+  <si>
+    <t>xbar2</t>
+  </si>
+  <si>
+    <t>ttab</t>
   </si>
 </sst>
 </file>
@@ -181,7 +190,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -479,6 +488,37 @@
       </right>
       <top/>
       <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -488,7 +528,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -546,44 +586,50 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -901,8 +947,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2432FB3-16D2-4EC6-8AC3-31C639FA4BE3}">
   <dimension ref="B3:AD19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
-      <selection activeCell="AD20" sqref="AD20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -911,16 +957,16 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="Q3" s="21" t="s">
+      <c r="Q3" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="R3" s="21"/>
-      <c r="S3" s="21"/>
-      <c r="T3" s="21"/>
-      <c r="AC3" s="27" t="s">
+      <c r="R3" s="29"/>
+      <c r="S3" s="29"/>
+      <c r="T3" s="29"/>
+      <c r="AC3" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="AD3" s="27"/>
+      <c r="AD3" s="34"/>
     </row>
     <row r="4" spans="2:30" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="6" t="s">
@@ -995,10 +1041,10 @@
       <c r="AA4" s="10">
         <v>9.8000000000000007</v>
       </c>
-      <c r="AC4" s="28" t="s">
+      <c r="AC4" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="AD4" s="29" t="s">
+      <c r="AD4" s="32" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1042,8 +1088,8 @@
       <c r="N5" s="5">
         <v>5.12</v>
       </c>
-      <c r="AC5" s="22"/>
-      <c r="AD5" s="30"/>
+      <c r="AC5" s="31"/>
+      <c r="AD5" s="33"/>
     </row>
     <row r="6" spans="2:30" x14ac:dyDescent="0.3">
       <c r="Q6" s="17" t="s">
@@ -1056,11 +1102,11 @@
       <c r="AC6" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="AD6" s="31">
+      <c r="AD6" s="25">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="2:30" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="Q7" s="18" t="s">
         <v>19</v>
       </c>
@@ -1075,6 +1121,13 @@
       </c>
     </row>
     <row r="8" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="B8" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="36">
+        <f>AVERAGE(C4:N4)</f>
+        <v>5.774166666666666</v>
+      </c>
       <c r="Q8" s="19" t="s">
         <v>4</v>
       </c>
@@ -1089,6 +1142,13 @@
       </c>
     </row>
     <row r="9" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="B9" s="37" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="38">
+        <f>AVERAGE(C5:N5)</f>
+        <v>6.2291666666666679</v>
+      </c>
       <c r="Q9" s="19" t="s">
         <v>5</v>
       </c>
@@ -1104,6 +1164,12 @@
       </c>
     </row>
     <row r="10" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="B10" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="38">
+        <v>1.75</v>
+      </c>
       <c r="Q10" s="19" t="s">
         <v>6</v>
       </c>
@@ -1118,6 +1184,13 @@
       </c>
     </row>
     <row r="11" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="B11" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="38">
+        <f>STDEV(C4:N4)</f>
+        <v>1.1395649754767558</v>
+      </c>
       <c r="Q11" s="19" t="s">
         <v>7</v>
       </c>
@@ -1133,6 +1206,13 @@
       </c>
     </row>
     <row r="12" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="B12" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="38">
+        <f>STDEV(C5:N5)</f>
+        <v>1.1827891407664939</v>
+      </c>
       <c r="Q12" s="19" t="s">
         <v>8</v>
       </c>
@@ -1149,6 +1229,12 @@
       </c>
     </row>
     <row r="13" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="B13" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="38">
+        <v>0.01</v>
+      </c>
       <c r="Q13" s="19" t="s">
         <v>10</v>
       </c>
@@ -1165,6 +1251,12 @@
       </c>
     </row>
     <row r="14" spans="2:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="38">
+        <v>12</v>
+      </c>
       <c r="Q14" s="20" t="s">
         <v>9</v>
       </c>
@@ -1172,10 +1264,6 @@
         <f>-R13</f>
         <v>-1.8331129326562368</v>
       </c>
-      <c r="AA14">
-        <f>1/3</f>
-        <v>0.33333333333333331</v>
-      </c>
       <c r="AC14" s="19" t="s">
         <v>24</v>
       </c>
@@ -1184,47 +1272,74 @@
       </c>
     </row>
     <row r="15" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="B15" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="38">
+        <v>12</v>
+      </c>
       <c r="AC15" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="AD15" s="31">
+      <c r="AD15" s="25">
         <f>AD6-1</f>
         <v>2</v>
       </c>
     </row>
     <row r="16" spans="2:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="AC16" s="23" t="s">
+      <c r="B16" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="38">
+        <f>((C8-C9)-C10)/SQRT((C11^2/C14)+(C12^2/C15))</f>
+        <v>-4.6506168662688259</v>
+      </c>
+      <c r="AC16" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="AD16" s="32">
+      <c r="AD16" s="26">
         <f>AD7-1</f>
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="26:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="AC17" s="25" t="s">
+    <row r="17" spans="2:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="38">
+        <f>C15+C14-2</f>
+        <v>22</v>
+      </c>
+      <c r="AC17" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="AD17" s="26">
+      <c r="AD17" s="24">
         <f>_xlfn.F.INV(1-AD14/2,AD15,AD16)</f>
         <v>10.649110640673511</v>
       </c>
     </row>
-    <row r="18" spans="26:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="AC18" s="24" t="s">
+    <row r="18" spans="2:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="39" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" s="40">
+        <f>_xlfn.T.INV((1-C13),C17)</f>
+        <v>2.5083245528990799</v>
+      </c>
+      <c r="AC18" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="AD18" s="26">
+      <c r="AD18" s="24">
         <f>_xlfn.F.INV(AD14/2,AD16,AD17)</f>
         <v>0.11307253037371254</v>
       </c>
     </row>
-    <row r="19" spans="26:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="Z19" s="11"/>
-      <c r="AC19" s="33" t="s">
+      <c r="AC19" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="AD19" s="34">
+      <c r="AD19" s="28">
         <f>AD12/AD13</f>
         <v>1.5625</v>
       </c>
